--- a/downloaded_files/ARCS406_Lecture-35226.xlsx
+++ b/downloaded_files/ARCS406_Lecture-35226.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -132,15 +132,6 @@
     <x:t>Mayar Ahmed Ahmed Sayed Ahmed</x:t>
   </x:si>
   <x:si>
-    <x:t>1210086</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ميار عاطف عبد اللطيف عبد العظيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MAYAR ATEF ABDELLATIF ABDELAZIM</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210322</x:t>
   </x:si>
   <x:si>
@@ -184,15 +175,6 @@
   </x:si>
   <x:si>
     <x:t>Yasmine Mohamed Mohamed AminAbd-ALLAH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1200327</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يحيى محمد عماد السيد محمد رمضان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>yahia mohamed emad elsayed mohamed ramdan</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -308,7 +290,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -608,7 +590,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T19"/>
+  <x:dimension ref="A1:T17"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -618,7 +600,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="29.080625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="44.030625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="14.050625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -859,7 +841,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.4147481481</x:v>
+        <x:v>45926.1095667824</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1051,7 +1033,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4149700232</x:v>
+        <x:v>45906.4146939815</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1083,7 +1065,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4146939815</x:v>
+        <x:v>45906.4145223727</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1115,7 +1097,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4145223727</x:v>
+        <x:v>45906.4144680556</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1147,7 +1129,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4144680556</x:v>
+        <x:v>45906.4145706019</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1179,7 +1161,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4145706019</x:v>
+        <x:v>45906.4142568287</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1196,70 +1178,6 @@
       <x:c r="R17" s="2" t="s"/>
       <x:c r="S17" s="2" t="s"/>
       <x:c r="T17" s="2" t="s"/>
-    </x:row>
-    <x:row r="18" spans="1:20">
-      <x:c r="A18" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B18" s="2" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="C18" s="2" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="D18" s="2" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="E18" s="3">
-        <x:v>45906.4142568287</x:v>
-      </x:c>
-      <x:c r="F18" s="2" t="s"/>
-      <x:c r="G18" s="2" t="s"/>
-      <x:c r="H18" s="2" t="s"/>
-      <x:c r="I18" s="2" t="s"/>
-      <x:c r="J18" s="2" t="s"/>
-      <x:c r="K18" s="2" t="s"/>
-      <x:c r="L18" s="2" t="s"/>
-      <x:c r="M18" s="2" t="s"/>
-      <x:c r="N18" s="2" t="s"/>
-      <x:c r="O18" s="2" t="s"/>
-      <x:c r="P18" s="2" t="s"/>
-      <x:c r="Q18" s="2" t="s"/>
-      <x:c r="R18" s="2" t="s"/>
-      <x:c r="S18" s="2" t="s"/>
-      <x:c r="T18" s="2" t="s"/>
-    </x:row>
-    <x:row r="19" spans="1:20">
-      <x:c r="A19" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B19" s="2" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="C19" s="2" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="D19" s="2" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="E19" s="3">
-        <x:v>45906.4147784722</x:v>
-      </x:c>
-      <x:c r="F19" s="2" t="s"/>
-      <x:c r="G19" s="2" t="s"/>
-      <x:c r="H19" s="2" t="s"/>
-      <x:c r="I19" s="2" t="s"/>
-      <x:c r="J19" s="2" t="s"/>
-      <x:c r="K19" s="2" t="s"/>
-      <x:c r="L19" s="2" t="s"/>
-      <x:c r="M19" s="2" t="s"/>
-      <x:c r="N19" s="2" t="s"/>
-      <x:c r="O19" s="2" t="s"/>
-      <x:c r="P19" s="2" t="s"/>
-      <x:c r="Q19" s="2" t="s"/>
-      <x:c r="R19" s="2" t="s"/>
-      <x:c r="S19" s="2" t="s"/>
-      <x:c r="T19" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
